--- a/Draft Excel Codelists/soundingPurpose.xlsx
+++ b/Draft Excel Codelists/soundingPurpose.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCA2262-A199-3F41-BA83-5869E9BE9BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D91D32-C504-F249-BE30-1C76F58DB14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23020" yWindow="7940" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -743,9 +743,6 @@
     <t>DIGGS Sounding Purpose Codelist Definitions</t>
   </si>
   <si>
-    <t>Codes that define the purpose of a sounding, which is a liear sampling feature created as a result of a measurement or construction activity. These codes are used for the value of the soundingPurpose property of the Sounding object.)</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>Pressuremeter</t>
+  </si>
+  <si>
+    <t>Codes that define the purpose of a sounding, which is a linear sampling feature created as a result of a measurement or construction activity. These codes are used for the value of the soundingPurpose property of the Sounding object.)</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -978,25 +978,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1014,6 +1001,30 @@
   <dxfs count="21">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1023,6 +1034,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1133,50 +1164,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1240,36 +1227,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D6" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1557,7 +1544,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1608,7 +1595,7 @@
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1612,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1674,10 +1661,10 @@
         <v/>
       </c>
       <c r="B2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="11" t="s">
@@ -1685,93 +1672,93 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="21"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,58 +1807,58 @@
         <v/>
       </c>
       <c r="B2" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>239</v>
+      <c r="B3" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>241</v>
+      <c r="B4" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>243</v>
+      <c r="B5" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>244</v>
+      <c r="B6" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
